--- a/tps/tp11_isw_4k4_grupo2/tp11_isw_4k4_grupo2.xlsx
+++ b/tps/tp11_isw_4k4_grupo2/tp11_isw_4k4_grupo2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delfina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Documents\GitHub\chianet\tps\tp11_isw_4k4_grupo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D97EEB-9C9F-41DB-A7D5-064F7E6FF613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DE173-AD20-4FE4-97ED-E6F2EDEB54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos_Prueba" sheetId="27" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
   <si>
     <t>TC_001</t>
   </si>
@@ -307,9 +307,6 @@
     <t>1. Georgina hace click en el botón "Seleccionar" 2. Georgina selecciona la forma de pago "Tarjeta"                                                                      3. Georgina selecciona el tipo de tarjeta "débito"                                                                      4. Georgina ingresa el número de tarjeta  0000111122223333                                                      5. Georgina ingresa el código de seguridad 000 6. Georgina ingresa el nombre "Georgina Gonzalez"  7. Georgina ingresa el tipo de documento "DNI" 8. Georgina ingresa el número de documento 40000000</t>
   </si>
   <si>
-    <t>La fecha por defecto no es la actual y no se puede cambiar</t>
-  </si>
-  <si>
     <t>1. El sistema muestra opcion  cotización</t>
   </si>
   <si>
@@ -319,27 +316,6 @@
     <t>Creado</t>
   </si>
   <si>
-    <t>El sistema pemite aceptar una cotización con fecha de retiro vencida</t>
-  </si>
-  <si>
-    <t>El sistema pemite aceptar una cotización con fecha de envío vencida</t>
-  </si>
-  <si>
-    <t>El sistema permite seleccionar una cotización con fecha de envío vencida</t>
-  </si>
-  <si>
-    <t>El sistema permite seleccionar una cotización con fecha de retiro vencida</t>
-  </si>
-  <si>
-    <t>El sistema no bloquea el botón "Confirmar" durante el procesamiento de la aceptación de la cotización y hacerlo arroja una excepción no controlada</t>
-  </si>
-  <si>
-    <t>El sistema muestra cotizaciones con fecha de retiro vencidas</t>
-  </si>
-  <si>
-    <t>El sistema muestra cotizaciones con fecha de envío vencidas</t>
-  </si>
-  <si>
     <t>1. Georgina hace click en el botón "Aceptar" de una cotización con fecha de envío vencida y muestra pop up de confirmación</t>
   </si>
   <si>
@@ -355,70 +331,100 @@
     <t>1.El sistema  Georgina hace click en el botón "Aceptar" de una cotización con fecha de retiro vencida y muestra pop up de confirmación</t>
   </si>
   <si>
-    <t>El boton "Pagar y aceptar" tiene escrito Aceptar con mayúscula</t>
-  </si>
-  <si>
-    <t>En el texto "Fecha de retiro" la palabra retiro empieza con mayúscula</t>
-  </si>
-  <si>
-    <t>En el texto "Fecha de entrega" la palabra entrega empieza con mayúscula</t>
-  </si>
-  <si>
-    <t>En el texto "Formas de pago" la palabra pago empieza con mayúscula</t>
-  </si>
-  <si>
-    <t>En el texto "Tipo de tarjeta" la palabra tarjeta empieza con mayúscula</t>
-  </si>
-  <si>
-    <t>En el texto "Nombre completo" la palabra completo empieza con mayúscula</t>
-  </si>
-  <si>
-    <t>En el texto "Tipo de documento" la palabra documento empieza con mayúscula</t>
-  </si>
-  <si>
-    <t>En el texto "Número de documento" la palabra documento empieza con mayúscula</t>
-  </si>
-  <si>
-    <t>No cumple la paleta de colores propuesta por el product owner</t>
-  </si>
-  <si>
-    <t>El campo de "Nombre completo" permite datos numéricos</t>
-  </si>
-  <si>
-    <t>Al recargar la página durante el procesamiento de la aceptación de la cotización, el sistema se bloquea</t>
-  </si>
-  <si>
     <t>Critico</t>
   </si>
   <si>
-    <t>Al navegar por el sistema a través de URLs no válidas el sistema arroja excepciones no controladas</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
     <t>Cosmetico</t>
   </si>
   <si>
-    <t>En la pantalla principal hay un caracter ";" sin razón</t>
-  </si>
-  <si>
-    <t>Cuando hay algún error de gramática no muestra qué error es, hay que buscar uno por uno en los campos</t>
-  </si>
-  <si>
     <t>Menor</t>
   </si>
   <si>
-    <t>Bloqueante</t>
-  </si>
-  <si>
-    <t>Al apretar el botón de retroceder después de confirmar una cotización, se puede volver a aceptar la cotización</t>
-  </si>
-  <si>
-    <t>Ante una carga elevada de aceptación de cotizaciones, se satura el envío de mails y deja de funcionar, largando un mensaje de error</t>
-  </si>
-  <si>
-    <t>Cuando hay algún error durante el procesamiento de la aceptación de la cotización, no se realiza un "rollback" de la transacción y figura como confirmada</t>
+    <t>En el texto "Nombre completo", la palabra "completo" empieza con mayúscula, lo que se considera error ortográfico.</t>
+  </si>
+  <si>
+    <t>En el texto "Tipo de tarjeta", la palabra "tarjeta" empieza con mayúscula, lo que se considera error ortográfico.</t>
+  </si>
+  <si>
+    <t>En el texto "Formas de pago", la palabra "pago" empieza con mayúscula, lo que se considera error ortográfico.</t>
+  </si>
+  <si>
+    <t>En el texto "Fecha de entrega", la palabra "entrega" empieza con mayúscula, lo que se considera error ortográfico.</t>
+  </si>
+  <si>
+    <t>En el texto "Fecha de retiro", la palabra "retiro" empieza con mayúscula, lo que se considera error ortográfico.</t>
+  </si>
+  <si>
+    <t>En el boton "Pagar y aceptar", la palabra "aceptar" empieza con mayúscula, lo que se considera error ortográfico.</t>
+  </si>
+  <si>
+    <t>Cuando hay algún error con los datos en algún campo, no se muestra qué error es.</t>
+  </si>
+  <si>
+    <t>La fecha por defecto no es la actual y no se puede cambiar.</t>
+  </si>
+  <si>
+    <t>El sistema permite seleccionar una cotización con fecha de retiro vencida.</t>
+  </si>
+  <si>
+    <t>El sistema permite seleccionar una cotización con fecha de envío vencida.</t>
+  </si>
+  <si>
+    <t>El sistema pemite aceptar una cotización con fecha de retiro vencida.</t>
+  </si>
+  <si>
+    <t>El sistema pemite aceptar una cotización con fecha de envío vencida.</t>
+  </si>
+  <si>
+    <t>El sistema no bloquea el botón "Confirmar" durante el procesamiento de la aceptación de la cotización y clickearlo arroja una excepción no controlada.</t>
+  </si>
+  <si>
+    <t>El sistema muestra cotizaciones con fecha de retiro vencidas.</t>
+  </si>
+  <si>
+    <t>El sistema muestra cotizaciones con fecha de envío vencidas.</t>
+  </si>
+  <si>
+    <t>No cumple la paleta de colores propuesta por el Product Owner.</t>
+  </si>
+  <si>
+    <t>En el texto "Tipo de documento", la palabra "documento" empieza con mayúscula, lo que se considera error ortográfico.</t>
+  </si>
+  <si>
+    <t>En el texto "Número de documento", la palabra "documento" empieza con mayúscula, lo que se considera error ortográfico.</t>
+  </si>
+  <si>
+    <t>El campo "Nombre completo" permite datos numéricos.</t>
+  </si>
+  <si>
+    <t>Al recargar la página durante el procesamiento de la aceptación de la cotización, el sistema se bloquea.</t>
+  </si>
+  <si>
+    <t>Al navegar por el sistema a través de URLs no válidas el sistema arroja excepciones no controladas.</t>
+  </si>
+  <si>
+    <t>En la pantalla principal hay un caracter ";" en el medio de la interfaz, sin razón.</t>
+  </si>
+  <si>
+    <t>Al apretar el botón de retroceder después de confirmar una cotización, se puede volver a aceptar la cotización.</t>
+  </si>
+  <si>
+    <t>Si no hay conexión a internet, al aceptar la cotización el sistema arroja una excepción no controlada.</t>
+  </si>
+  <si>
+    <t>Cuando hay algún error durante el procesamiento de la aceptación de la cotización, no se realiza un "rollback" de la transacción y figura como confirmada.</t>
+  </si>
+  <si>
+    <t>No se realiza el envío de la notificacón push al transportista al confirmar la cotización.</t>
+  </si>
+  <si>
+    <t>Durante el procesamiento de la aceptación de la cotización, la interfaz permite cambiar el medio de pago y generar una confirmación de la misma cotización paralelamente, con otro medio de pago.</t>
+  </si>
+  <si>
+    <t>Después de procesar 300 cotizaciones en un día, se llega al límite de envío de mails que dispone la cuenta de hotmail gratis utilizada.</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1732,7 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="10" style="2" customWidth="1"/>
@@ -4229,11 +4235,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="43.140625" customWidth="1"/>
@@ -4297,19 +4303,19 @@
         <v>45447</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4321,19 +4327,19 @@
         <v>45447</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4345,19 +4351,19 @@
         <v>45447</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="F6" s="17" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4369,19 +4375,19 @@
         <v>45447</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4393,19 +4399,19 @@
         <v>45447</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4417,19 +4423,19 @@
         <v>45447</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4441,17 +4447,17 @@
         <v>45447</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4463,17 +4469,17 @@
         <v>45447</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4485,17 +4491,17 @@
         <v>45447</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4507,20 +4513,20 @@
         <v>45447</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -4529,20 +4535,20 @@
         <v>45447</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>12</v>
       </c>
@@ -4551,20 +4557,20 @@
         <v>45447</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -4573,20 +4579,20 @@
         <v>45447</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>14</v>
       </c>
@@ -4595,20 +4601,20 @@
         <v>45447</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -4617,20 +4623,20 @@
         <v>45447</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -4639,20 +4645,20 @@
         <v>45447</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -4661,20 +4667,20 @@
         <v>45447</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -4683,17 +4689,17 @@
         <v>45447</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4705,17 +4711,17 @@
         <v>45447</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4727,17 +4733,17 @@
         <v>45447</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4749,16 +4755,16 @@
         <v>45447</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>22</v>
       </c>
@@ -4767,13 +4773,13 @@
         <v>45447</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4785,16 +4791,16 @@
         <v>45447</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>24</v>
       </c>
@@ -4803,13 +4809,13 @@
         <v>45447</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4821,61 +4827,67 @@
         <v>45447</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>26</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="37">
-        <v>45447</v>
-      </c>
-      <c r="D29" s="17"/>
+        <v>45449</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>27</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="37">
-        <v>45447</v>
-      </c>
-      <c r="D30" s="17"/>
+        <v>45449</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>28</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="37">
-        <v>45447</v>
-      </c>
-      <c r="D31" s="17"/>
+        <v>45449</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4883,15 +4895,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C32" s="37"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -4899,15 +4909,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="17"/>
-      <c r="C33" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C33" s="37"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4915,15 +4923,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C34" s="37"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4931,15 +4937,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="17"/>
-      <c r="C35" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C35" s="37"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -4947,15 +4951,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="17"/>
-      <c r="C36" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C36" s="37"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -4963,15 +4965,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="17"/>
-      <c r="C37" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C37" s="37"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -4979,15 +4979,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="17"/>
-      <c r="C38" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C38" s="37"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -4995,15 +4993,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="17"/>
-      <c r="C39" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C39" s="37"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5011,15 +5007,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="17"/>
-      <c r="C40" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C40" s="37"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -5027,15 +5021,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="17"/>
-      <c r="C41" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C41" s="37"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -5043,15 +5035,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="17"/>
-      <c r="C42" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C42" s="37"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -5059,15 +5049,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="17"/>
-      <c r="C43" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C43" s="37"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -5075,15 +5063,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="17"/>
-      <c r="C44" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C44" s="37"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -5091,15 +5077,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="17"/>
-      <c r="C45" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C45" s="37"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -5107,15 +5091,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="17"/>
-      <c r="C46" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C46" s="37"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -5123,15 +5105,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="17"/>
-      <c r="C47" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C47" s="37"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -5139,15 +5119,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="17"/>
-      <c r="C48" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C48" s="37"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -5155,15 +5133,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="17"/>
-      <c r="C49" s="37">
-        <v>45447</v>
-      </c>
+      <c r="C49" s="37"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5184,20 +5160,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5327,19 +5303,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tps/tp11_isw_4k4_grupo2/tp11_isw_4k4_grupo2.xlsx
+++ b/tps/tp11_isw_4k4_grupo2/tp11_isw_4k4_grupo2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Documents\GitHub\chianet\tps\tp11_isw_4k4_grupo2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - frc.utn.edu.ar\UTN2024\ISW 4K4\Repos ISW\chianet\tps\tp11_isw_4k4_grupo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DE173-AD20-4FE4-97ED-E6F2EDEB54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7857624A-3C14-4A16-8C8C-ACFEE984E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos_Prueba" sheetId="27" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>TC_001</t>
   </si>
@@ -307,9 +307,6 @@
     <t>1. Georgina hace click en el botón "Seleccionar" 2. Georgina selecciona la forma de pago "Tarjeta"                                                                      3. Georgina selecciona el tipo de tarjeta "débito"                                                                      4. Georgina ingresa el número de tarjeta  0000111122223333                                                      5. Georgina ingresa el código de seguridad 000 6. Georgina ingresa el nombre "Georgina Gonzalez"  7. Georgina ingresa el tipo de documento "DNI" 8. Georgina ingresa el número de documento 40000000</t>
   </si>
   <si>
-    <t>1. El sistema muestra opcion  cotización</t>
-  </si>
-  <si>
     <t>Severo</t>
   </si>
   <si>
@@ -425,6 +422,18 @@
   </si>
   <si>
     <t>Después de procesar 300 cotizaciones en un día, se llega al límite de envío de mails que dispone la cuenta de hotmail gratis utilizada.</t>
+  </si>
+  <si>
+    <t>El nombre e icono que aparece como identificador de la pesta{a no corresponde.</t>
+  </si>
+  <si>
+    <t>1. El sistema muestra opcion cotización</t>
+  </si>
+  <si>
+    <t>La barra de navegacion del sitio web no es totalmente responsive.</t>
+  </si>
+  <si>
+    <t>1. Georgina hace click en el botón "Minimizar pantalla" del navegador.                                                                         2. Georgina disminuye el ancho de la ventana lo maximo posible.                                                                     3.Georgina usa la barra de navegacion horizontal del navegador para deslizarse hacia la derecha.</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1741,7 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="10" style="2" customWidth="1"/>
@@ -4235,11 +4244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="43.140625" customWidth="1"/>
@@ -4303,19 +4312,19 @@
         <v>45447</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4327,19 +4336,19 @@
         <v>45447</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4351,19 +4360,19 @@
         <v>45447</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4375,19 +4384,19 @@
         <v>45447</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4399,19 +4408,19 @@
         <v>45447</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4423,19 +4432,19 @@
         <v>45447</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4447,17 +4456,17 @@
         <v>45447</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4469,17 +4478,17 @@
         <v>45447</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4491,17 +4500,17 @@
         <v>45447</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4513,17 +4522,17 @@
         <v>45447</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4535,17 +4544,17 @@
         <v>45447</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4557,17 +4566,17 @@
         <v>45447</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4579,17 +4588,17 @@
         <v>45447</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4601,17 +4610,17 @@
         <v>45447</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4623,17 +4632,17 @@
         <v>45447</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4645,17 +4654,17 @@
         <v>45447</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4667,17 +4676,17 @@
         <v>45447</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4689,17 +4698,17 @@
         <v>45447</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4711,17 +4720,17 @@
         <v>45447</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4733,17 +4742,17 @@
         <v>45447</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4755,13 +4764,13 @@
         <v>45447</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4773,13 +4782,13 @@
         <v>45447</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4791,13 +4800,13 @@
         <v>45447</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4809,13 +4818,13 @@
         <v>45447</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4827,13 +4836,13 @@
         <v>45447</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -4845,13 +4854,13 @@
         <v>45449</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4863,13 +4872,13 @@
         <v>45449</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.2">
@@ -4881,41 +4890,59 @@
         <v>45449</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>29</v>
       </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="17"/>
+      <c r="C32" s="37">
+        <v>45450</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="H32" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>30</v>
       </c>
       <c r="B33" s="17"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="37">
+        <v>45450</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="H33" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4929,7 +4956,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4943,7 +4970,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -4957,7 +4984,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -4971,7 +4998,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -4985,7 +5012,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -4999,7 +5026,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5013,7 +5040,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -5027,7 +5054,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -5041,7 +5068,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -5055,7 +5082,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -5069,7 +5096,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -5083,7 +5110,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -5097,7 +5124,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -5111,7 +5138,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -5125,7 +5152,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -5139,7 +5166,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
